--- a/PracticeCode/Activity Log/LogBook_SandhyaRani.xlsx
+++ b/PracticeCode/Activity Log/LogBook_SandhyaRani.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubInterns\C-sharp-learning\PracticeCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubInterns\C-sharp-learning\PracticeCode\Activity Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC168BDE-79D0-4581-807B-AD2656296E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875058B9-D9D1-491D-B697-075149D245D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -67,12 +67,6 @@
   </si>
   <si>
     <t>Aggregation</t>
-  </si>
-  <si>
-    <t>Method Overloading</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -453,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,23 +542,6 @@
       </c>
       <c r="F4" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5">
-        <v>45155</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/PracticeCode/Activity Log/LogBook_SandhyaRani.xlsx
+++ b/PracticeCode/Activity Log/LogBook_SandhyaRani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubInterns\C-sharp-learning\PracticeCode\Activity Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875058B9-D9D1-491D-B697-075149D245D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC57F4B7-C5AE-4F69-8FE7-A7E89EDC2539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Aggregation</t>
+  </si>
+  <si>
+    <t>Method Overloading</t>
+  </si>
+  <si>
+    <t>Method Overriding</t>
+  </si>
+  <si>
+    <t>Base Keyword</t>
   </si>
 </sst>
 </file>
@@ -447,11 +456,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,6 +550,66 @@
         <v>45155</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45156</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45156</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
+        <v>45159</v>
+      </c>
+      <c r="E6" s="5">
+        <v>45159</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
+        <v>45160</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45160</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/PracticeCode/Activity Log/LogBook_SandhyaRani.xlsx
+++ b/PracticeCode/Activity Log/LogBook_SandhyaRani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubInterns\C-sharp-learning\PracticeCode\Activity Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC57F4B7-C5AE-4F69-8FE7-A7E89EDC2539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E259564D-8BCE-462E-9935-A3855D1909DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Base Keyword</t>
+  </si>
+  <si>
+    <t>Sealed Class</t>
   </si>
 </sst>
 </file>
@@ -456,11 +459,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,6 +613,26 @@
         <v>45160</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5">
+        <v>45161</v>
+      </c>
+      <c r="E8" s="5">
+        <v>45161</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
